--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,16 +52,22 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>hell</t>
@@ -70,312 +76,321 @@
     <t>uncertainty</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>creative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>credit</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>solution</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>want</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>toilet</t>
   </si>
   <si>
@@ -383,12 +398,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -836,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -886,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -915,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,16 +995,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L6">
         <v>44</v>
       </c>
-      <c r="K6">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
       <c r="M6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -1033,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9661016949152542</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9545454545454546</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9473684210526315</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1165,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.684931506849315</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.9444444444444444</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6521739130434783</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.9393939393939394</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8723404255319149</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5641025641025641</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.859375</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,16 +1445,16 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8571428571428571</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,16 +1495,16 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8125</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4838709677419355</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4324324324324325</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4054054054054054</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8103448275862069</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3758389261744967</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3611111111111111</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7887323943661971</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3527131782945737</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7826086956521739</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3466666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>95</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L24">
         <v>49</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="L24">
-        <v>91</v>
-      </c>
       <c r="M24">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3389830508474576</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.325</v>
+        <v>0.2875</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.725</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L27">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2074,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3227513227513227</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.68125</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3137254901960784</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.7111111111111111</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2987012987012987</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6981132075471698</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L30">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2333333333333333</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.6944444444444444</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.6808510638297872</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2307,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1984126984126984</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,28 +2374,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.128686327077748</v>
+        <v>0.1155913978494624</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K34">
         <v>0.625</v>
@@ -2411,17 +2420,41 @@
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.02826086956521739</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0.24</v>
+      </c>
+      <c r="F35">
+        <v>0.76</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>447</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.618798955613577</v>
+        <v>0.62</v>
       </c>
       <c r="L35">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2433,21 +2466,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>146</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.004423380726698263</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>0.72</v>
+      </c>
+      <c r="F36">
+        <v>0.28</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3151</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2459,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2485,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2511,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2537,21 +2594,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.5730337078651685</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2563,21 +2620,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2589,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.5647058823529412</v>
+        <v>0.55</v>
       </c>
       <c r="L42">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2615,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.5600000000000001</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2641,21 +2698,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.5581395348837209</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2667,21 +2724,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.5483870967741935</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2693,21 +2750,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.5457627118644067</v>
+        <v>0.525</v>
       </c>
       <c r="L46">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2719,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.5068493150684932</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2745,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2771,21 +2828,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.4923076923076923</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2797,21 +2854,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.46875</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2823,21 +2880,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.4728033472803347</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L51">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2849,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.4642857142857143</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2875,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2901,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.453125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2927,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K55">
-        <v>0.4523809523809524</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2953,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.4516129032258064</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2979,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.425531914893617</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3005,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.4230769230769231</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3031,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.3442622950819672</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3057,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.3285714285714286</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3083,21 +3140,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.288135593220339</v>
+        <v>0.25</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3109,21 +3166,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.2777777777777778</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3135,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.2203389830508475</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3161,21 +3218,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.1653543307086614</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3187,15 +3244,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>106</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.1368421052631579</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="L65">
         <v>13</v>
@@ -3213,73 +3270,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K66">
-        <v>0.1307692307692308</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>113</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K67">
-        <v>0.1302325581395349</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>187</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K68">
-        <v>0.1267942583732057</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L68">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3291,21 +3348,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>365</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K69">
-        <v>0.125</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L69">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3317,73 +3374,73 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>364</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K70">
-        <v>0.1090909090909091</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M70">
         <v>18</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K71">
-        <v>0.09815950920245399</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>147</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K72">
-        <v>0.09302325581395349</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3395,47 +3452,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>156</v>
+        <v>814</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K73">
-        <v>0.08734602463605823</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L73">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>815</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K74">
-        <v>0.08372093023255814</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3447,21 +3504,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K75">
-        <v>0.07769145394006659</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L75">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3473,47 +3530,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K76">
-        <v>0.0736196319018405</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L76">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>302</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K77">
-        <v>0.05761316872427984</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3525,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>458</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K78">
-        <v>0.04545454545454546</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3551,73 +3608,73 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K79">
-        <v>0.04482225656877898</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N79">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>618</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K80">
-        <v>0.04119850187265917</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L80">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N80">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O80">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2048</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K81">
-        <v>0.04036908881199539</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M81">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3629,47 +3686,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>832</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K82">
-        <v>0.02831858407079646</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N82">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>549</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K83">
-        <v>0.02789256198347108</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L83">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3681,85 +3738,137 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>941</v>
+        <v>828</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K84">
-        <v>0.02576489533011272</v>
+        <v>0.03461178671655753</v>
       </c>
       <c r="L84">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M84">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>3025</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K85">
-        <v>0.01191222570532915</v>
+        <v>0.03356890459363958</v>
       </c>
       <c r="L85">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N85">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>3152</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K86">
-        <v>0.01123595505617977</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L86">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="O86">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1144</v>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K87">
+        <v>0.02227962544397804</v>
+      </c>
+      <c r="L87">
+        <v>69</v>
+      </c>
+      <c r="M87">
+        <v>79</v>
+      </c>
+      <c r="N87">
+        <v>0.87</v>
+      </c>
+      <c r="O87">
+        <v>0.13</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88">
+        <v>0.01129588955130217</v>
+      </c>
+      <c r="L88">
+        <v>36</v>
+      </c>
+      <c r="M88">
+        <v>50</v>
+      </c>
+      <c r="N88">
+        <v>0.72</v>
+      </c>
+      <c r="O88">
+        <v>0.28</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
